--- a/biology/Botanique/Bolet_de_Quélet/Bolet_de_Quélet.xlsx
+++ b/biology/Botanique/Bolet_de_Quélet/Bolet_de_Quélet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bolet_de_Qu%C3%A9let</t>
+          <t>Bolet_de_Quélet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Suillellus queletii
 Suillellus queletii, le Bolet de Quélet, anciennement Boletus queletii, est une espèce de champignons basidiomycètes du genre Suillellus dans la famille des Boletaceae. Il est caractérisé par son pied lisse sans ornementation, à la base de couleur betterave.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bolet_de_Qu%C3%A9let</t>
+          <t>Bolet_de_Quélet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillellus queletii (Schulzer) Vizzini, Simonini &amp; Gelardi, 2014[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus queletii Schulzer, 1885[1].
-Synonymes
-Suillellus queletii a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillellus queletii (Schulzer) Vizzini, Simonini &amp; Gelardi, 2014. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus queletii Schulzer, 1885.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_de_Quélet</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_de_Qu%C3%A9let</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suillellus queletii a pour synonymes :
 Boletus lateritius Bres. &amp; Schulzer
 Boletus purpureus var. luteopurpureus Gillet
 Boletus queletii Schulzer
@@ -529,86 +578,195 @@
 Tubiporus queletii (Schulzer) Imler ex S.Ahmad, 1962
 Tubiporus queletii (Schulzer) Maire
 Versipellis queletii (Schulzer) Quél.
-Étymologie
-L'épithète spécifique queletii est à l'honneur du mycologue Lucien Quélet.
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet de Quélet[2].
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bolet_de_Qu%C3%A9let</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_de_Quélet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_de_Qu%C3%A9let</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique queletii est à l'honneur du mycologue Lucien Quélet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_de_Quélet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_de_Qu%C3%A9let</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet de Quélet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_de_Quélet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_de_Qu%C3%A9let</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillellus queletii, le Bolet de Quélet, sont les suivantes :
 Son chapeau mesure de 5 à 15 cm, il est sec et souvent velouté, variable de couleur, brun, brun orangé, brun cuivré à brun-rouge, parfois avec des teintes cuivrées ou olivâtres. 
 Son hyménophore présente des tubes jaunes puis jaune olivâtre, nettement bleuissants. Ses pores sont fins, jaunes à orangés et enfin rouges, bleuissants.
 Son stipe mesure 5 à 15 cm x 1,5 à 4,5 cm. Il est de couleur crème à jaunâtre clair, sans aucun réseau, couvert de très fines granulations, presque indistinctes, si ce n'est sublisse. La base de ce pied est typiquement de couleur rouge pourpre betterave, à l'extérieur comme à la coupe. 
-Sa chair est jaune à jaune pâle, bleuissante à la coupe, de couleur rouge pourpre betterave à la base. Sa saveur est douce et son odeur est faible[3],[4].
+Sa chair est jaune à jaune pâle, bleuissante à la coupe, de couleur rouge pourpre betterave à la base. Sa saveur est douce et son odeur est faible,.
 	Caractéristiques du Bolet de Quélet
 			Chapeau brun orangé à brun-rouge
 			Pores jaunes à orangés
 			Stipe très finement ponctué à sublisse
 			Bleuissement de la chair à la coupe et base du pied betterave
-Caractéristiques microscopiques
-Ses spores mesurent 10-13,5 x 5-6,5 µm[3]. Elles sont allongées-fusoïdes[4].
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bolet_de_Qu%C3%A9let</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_de_Quélet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_de_Qu%C3%A9let</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 10-13,5 x 5-6,5 µm. Elles sont allongées-fusoïdes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_de_Quélet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_de_Qu%C3%A9let</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Suillellus queletii f. discolor, variété aux couleurs variées. Chapeau jaunâtre, tubes jaunes, pores orangeâtres, stipe jaune jonquille, betterave à la base. Couche orangeâtre sous les tubes. Spores 11,7-14,5 X 6-7,5 μm[5]. Peut très facilement se confondre avec la forme discolor de N. erythropus.
-Suillellus queletii var. rubicundus, variété rubiconde. Chapeau rouge pourpre, rougeâtre. Pores orangeâtre sale. Stipe plus ou moins ponctué de rouge pourpre, rougeâtre. Base betterave, couche jaune sous les tubes. Sous chênes divers, assez fréquent sous chênes verts[5].
-Suillellus queletii var. pseudoluridus, variété semblable à S. luridus. Chapeau irrégulier orangeâtre d'aspect granité. Pores orangeâtres. Stipe ponctué de fines méchules rouges avec parfois un début de pseudo-réseau. Chair jaune, rouge betterave dans sa moitié inférieure, plus noirâtre à la coupe que chez S. queletii. Ligne de Bataille plus au moins bien définie[5].
-Suillellus queletii var. zugazae, chapeau crème plus ou moins sombre ou ochracé-orangé. Pores jaunes à rose orangé. Stipe nu ou éraillé, crème foncé, jaunâtre. Chair blanche, un peu jaunâtre, rouge foncé dans le stipe, se prolongeant par une faible ligne rougeâtre plus ou moins longue au-dessus des tubes. Sous Pinus sylvestris. Spores 16-18 x 5-8,5 μm[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Suillellus queletii f. discolor, variété aux couleurs variées. Chapeau jaunâtre, tubes jaunes, pores orangeâtres, stipe jaune jonquille, betterave à la base. Couche orangeâtre sous les tubes. Spores 11,7-14,5 X 6-7,5 μm. Peut très facilement se confondre avec la forme discolor de N. erythropus.
+Suillellus queletii var. rubicundus, variété rubiconde. Chapeau rouge pourpre, rougeâtre. Pores orangeâtre sale. Stipe plus ou moins ponctué de rouge pourpre, rougeâtre. Base betterave, couche jaune sous les tubes. Sous chênes divers, assez fréquent sous chênes verts.
+Suillellus queletii var. pseudoluridus, variété semblable à S. luridus. Chapeau irrégulier orangeâtre d'aspect granité. Pores orangeâtres. Stipe ponctué de fines méchules rouges avec parfois un début de pseudo-réseau. Chair jaune, rouge betterave dans sa moitié inférieure, plus noirâtre à la coupe que chez S. queletii. Ligne de Bataille plus au moins bien définie.
+Suillellus queletii var. zugazae, chapeau crème plus ou moins sombre ou ochracé-orangé. Pores jaunes à rose orangé. Stipe nu ou éraillé, crème foncé, jaunâtre. Chair blanche, un peu jaunâtre, rouge foncé dans le stipe, se prolongeant par une faible ligne rougeâtre plus ou moins longue au-dessus des tubes. Sous Pinus sylvestris. Spores 16-18 x 5-8,5 μm.
 On notera également Suillellus queletii var. lateritius, Suillellus queletii var. aurantiacus, Suillellus queletii f. junquilleus et Suillellus queletii var. squarrosipes.</t>
         </is>
       </c>
